--- a/dumps/Stocks/Graphite India Ltd.xlsx
+++ b/dumps/Stocks/Graphite India Ltd.xlsx
@@ -8,11 +8,11 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Trading History'!$B$4:$AD$25</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_C9E1FA3A_551A_4967_819B_0AAB73C11DEF_.wvu.FilterData">'Trading History'!$B$4:$AO$104</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_7EDCED90_7690_4314_A3D1_C0C1E2433F64_.wvu.FilterData">'Trading History'!$B$4:$AO$104</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C9E1FA3A-551A-4967-819B-0AAB73C11DEF}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7EDCED90-7690-4314-A3D1-C0C1E2433F64}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -834,8 +834,8 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE($C$1, ""price"")"),619.5)</f>
-        <v>619.5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE($C$1, ""price"")"),666.2)</f>
+        <v>666.2</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2" t="s">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="F8" s="14">
         <f>IFERROR(SUM('Trading History'!$R$4:$R1004), 0)</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="16" t="s">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="I8" s="14">
         <f>SUM('Trading History'!$V$4:$V1004)</f>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="17" t="s">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="C9" s="5">
         <f>IFERROR(Index!C10/(Index!C8*Index!$C$2), 0)</f>
-        <v>0.2489315615</v>
+        <v>0.3005993731</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="20" t="s">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="F9" s="5">
         <f>IFERROR(Index!F10/(Index!F8*Index!$C$2), 0)</f>
-        <v>0.3152041799</v>
+        <v>0.3751454713</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="21" t="s">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="I9" s="5">
         <f>IFERROR(Index!I10/(Index!I8*Index!$C$2), 0)</f>
-        <v>0.1775610495</v>
+        <v>0.2409624945</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="22" t="s">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C10" s="23">
         <f>SUM('Trading History'!$L$4:$L1004)</f>
-        <v>20818.76882</v>
+        <v>27035.00582</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="20" t="s">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="F10" s="23">
         <f>SUM('Trading History'!$P$4:$P1004)</f>
-        <v>13668.82926</v>
+        <v>14995.31478</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="21" t="s">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="I10" s="23">
         <f>SUM('Trading History'!$T$4:$T1004)</f>
-        <v>7149.93956</v>
+        <v>12039.69104</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="22" t="s">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="F11" s="23">
         <f>Index!F12-Index!F10</f>
-        <v>29502.09</v>
+        <v>24763.77</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="21" t="s">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I11" s="23">
         <f>Index!I12-Index!I10</f>
-        <v>33016.04</v>
+        <v>37754.36</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="22" t="s">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="C12" s="23">
         <f>SUM('Trading History'!$M$4:$M1004)</f>
-        <v>83336.89882</v>
+        <v>89553.13582</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="20" t="s">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="F12" s="23">
         <f>SUM('Trading History'!$Q$4:$Q1004)</f>
-        <v>43170.91926</v>
+        <v>39759.08478</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="21" t="s">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="I12" s="23">
         <f>SUM('Trading History'!$U$4:$U1004)</f>
-        <v>40165.97956</v>
+        <v>49794.05104</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="22" t="s">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="C15" s="14">
         <f>SUMIFS('Trading History'!$N$4:$N1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A15))</f>
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="15" t="s">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="F15" s="14">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A15)), 0)</f>
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="16" t="s">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="C16" s="5">
         <f>IFERROR(Index!C17/(Index!C15*Index!$C$2), 0)</f>
-        <v>0.3394883151</v>
+        <v>0.3751454713</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="20" t="s">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="F16" s="5">
         <f>IFERROR(Index!F17/(Index!F15*Index!$C$2), 0)</f>
-        <v>0.3394883151</v>
+        <v>0.3751454713</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="21" t="s">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="C17" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A15))</f>
-        <v>5257.82528</v>
+        <v>14995.31478</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="20" t="s">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="F17" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A15))</f>
-        <v>5257.82528</v>
+        <v>14995.31478</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="21" t="s">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="C18" s="23">
         <f>Index!C19-Index!C17</f>
-        <v>10155.02</v>
+        <v>24763.77</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="20" t="s">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="F18" s="23">
         <f>Index!F19-Index!F17</f>
-        <v>10155.02</v>
+        <v>24763.77</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="21" t="s">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C19" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A15))</f>
-        <v>15412.84528</v>
+        <v>39759.08478</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="20" t="s">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="F19" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A15))</f>
-        <v>15412.84528</v>
+        <v>39759.08478</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="21" t="s">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="C23" s="5">
         <f>IFERROR(Index!C24/(Index!C22*Index!$C$2), 0)</f>
-        <v>0.3290971961</v>
+        <v>0.3751454713</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="20" t="s">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="F23" s="5">
         <f>IFERROR(Index!F24/(Index!F22*Index!$C$2), 0)</f>
-        <v>0.3290971961</v>
+        <v>0.3751454713</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="21" t="s">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C24" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A22))</f>
-        <v>12232.54278</v>
+        <v>14995.31478</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="20" t="s">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="F24" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A22))</f>
-        <v>12232.54278</v>
+        <v>14995.31478</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="21" t="s">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C26" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A22))</f>
-        <v>36996.31278</v>
+        <v>39759.08478</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="20" t="s">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F26" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A22))</f>
-        <v>36996.31278</v>
+        <v>39759.08478</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="21" t="s">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="C30" s="5">
         <f>IFERROR(Index!C31/(Index!C29*Index!$C$2), 0)</f>
-        <v>0.3290971961</v>
+        <v>0.3751454713</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="20" t="s">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="F30" s="5">
         <f>IFERROR(Index!F31/(Index!F29*Index!$C$2), 0)</f>
-        <v>0.3290971961</v>
+        <v>0.3751454713</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="21" t="s">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C31" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A29))</f>
-        <v>12232.54278</v>
+        <v>14995.31478</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="20" t="s">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="F31" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A29))</f>
-        <v>12232.54278</v>
+        <v>14995.31478</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="21" t="s">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="C33" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A29))</f>
-        <v>36996.31278</v>
+        <v>39759.08478</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="20" t="s">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="F33" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A29))</f>
-        <v>36996.31278</v>
+        <v>39759.08478</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="21" t="s">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="C36" s="14">
         <f>SUMIFS('Trading History'!$N$4:$N1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A36))</f>
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="15" t="s">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="I36" s="14">
         <f>SUMIFS('Trading History'!$V$4:$V1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A36))</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="17" t="s">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="C37" s="5">
         <f>IFERROR(Index!C38/(Index!C36*Index!$C$2), 0)</f>
-        <v>0.3290971961</v>
+        <v>0.3290921437</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="20" t="s">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="F37" s="5">
         <f>IFERROR(Index!F38/(Index!F36*Index!$C$2), 0)</f>
-        <v>0.3290971961</v>
+        <v>0.3751454713</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="21" t="s">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="I37" s="5">
         <f>IFERROR(Index!I38/(Index!I36*Index!$C$2), 0)</f>
-        <v>0</v>
+        <v>0.2749117582</v>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="22" t="s">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="C38" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A36))</f>
-        <v>12232.54278</v>
+        <v>24335.77166</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="20" t="s">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="F38" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A36))</f>
-        <v>12232.54278</v>
+        <v>14995.31478</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="21" t="s">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="I38" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A36))</f>
-        <v>0</v>
+        <v>9340.45688</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="22" t="s">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="C39" s="23">
         <f>Index!C40-Index!C38</f>
-        <v>24763.77</v>
+        <v>49266.89</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="20" t="s">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="I39" s="23">
         <f>Index!I40-Index!I38</f>
-        <v>0</v>
+        <v>24503.12</v>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="22" t="s">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="C40" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A36))</f>
-        <v>36996.31278</v>
+        <v>73602.66166</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="20" t="s">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="F40" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A36))</f>
-        <v>36996.31278</v>
+        <v>39759.08478</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="21" t="s">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="I40" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A36))</f>
-        <v>0</v>
+        <v>33843.57688</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="22" t="s">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="C43" s="14">
         <f>SUMIFS('Trading History'!$N$4:$N1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A43))</f>
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="15" t="s">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="F43" s="14">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A43)), 0)</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="16" t="s">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="I43" s="14">
         <f>SUMIFS('Trading History'!$V$4:$V1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A43))</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="17" t="s">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="C44" s="5">
         <f>IFERROR(Index!C45/(Index!C43*Index!$C$2), 0)</f>
-        <v>0.3152041799</v>
+        <v>0.3215127515</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="20" t="s">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F44" s="5">
         <f>IFERROR(Index!F45/(Index!F43*Index!$C$2), 0)</f>
-        <v>0.3152041799</v>
+        <v>0.3751454713</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="21" t="s">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="I44" s="5">
         <f>IFERROR(Index!I45/(Index!I43*Index!$C$2), 0)</f>
-        <v>0</v>
+        <v>0.2687592566</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="22" t="s">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="C45" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A43))</f>
-        <v>13668.82926</v>
+        <v>25917.2072</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="20" t="s">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="F45" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A43))</f>
-        <v>13668.82926</v>
+        <v>14995.31478</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="21" t="s">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="I45" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A43))</f>
-        <v>0</v>
+        <v>10921.89242</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="22" t="s">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="C46" s="23">
         <f>Index!C47-Index!C45</f>
-        <v>29502.09</v>
+        <v>54325</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="20" t="s">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="F46" s="23">
         <f>Index!F47-Index!F45</f>
-        <v>29502.09</v>
+        <v>24763.77</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="21" t="s">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="I46" s="23">
         <f>Index!I47-Index!I45</f>
-        <v>0</v>
+        <v>29561.23</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="22" t="s">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="C47" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A43))</f>
-        <v>43170.91926</v>
+        <v>80242.2072</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="20" t="s">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="F47" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A43))</f>
-        <v>43170.91926</v>
+        <v>39759.08478</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="21" t="s">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="I47" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A43))</f>
-        <v>0</v>
+        <v>40483.12242</v>
       </c>
       <c r="J47" s="8"/>
       <c r="K47" s="22" t="s">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C50" s="14">
         <f>SUMIFS('Trading History'!$N$4:$N1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A50))</f>
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="15" t="s">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="F50" s="14">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A50)), 0)</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="16" t="s">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="I50" s="14">
         <f>SUMIFS('Trading History'!$V$4:$V1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A50))</f>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="17" t="s">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="C51" s="5">
         <f>IFERROR(Index!C52/(Index!C50*Index!$C$2), 0)</f>
-        <v>0.2795722133</v>
+        <v>0.3181480704</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="20" t="s">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="F51" s="5">
         <f>IFERROR(Index!F52/(Index!F50*Index!$C$2), 0)</f>
-        <v>0.3152041799</v>
+        <v>0.3751454713</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="21" t="s">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="I51" s="5">
         <f>IFERROR(Index!I52/(Index!I50*Index!$C$2), 0)</f>
-        <v>0.2187371484</v>
+        <v>0.2655350849</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="22" t="s">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C52" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A50))</f>
-        <v>19224.64346</v>
+        <v>26493.78056</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="20" t="s">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="F52" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A50))</f>
-        <v>13668.82926</v>
+        <v>14995.31478</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="21" t="s">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="I52" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A50))</f>
-        <v>5555.8142</v>
+        <v>11498.46578</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="22" t="s">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="C53" s="23">
         <f>Index!C54-Index!C52</f>
-        <v>49266.89</v>
+        <v>56405.04</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="20" t="s">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="F53" s="23">
         <f>Index!F54-Index!F52</f>
-        <v>29502.09</v>
+        <v>24763.77</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="21" t="s">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="I53" s="23">
         <f>Index!I54-Index!I52</f>
-        <v>19764.8</v>
+        <v>31641.27</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="22" t="s">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="C54" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A50))</f>
-        <v>68491.53346</v>
+        <v>82898.82056</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="20" t="s">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="F54" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A50))</f>
-        <v>43170.91926</v>
+        <v>39759.08478</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="21" t="s">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="I54" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A50))</f>
-        <v>25320.6142</v>
+        <v>43139.73578</v>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="22" t="s">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="C57" s="14">
         <f>SUMIFS('Trading History'!$N$4:$N1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A57))</f>
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="15" t="s">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="F57" s="14">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A57)), 0)</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="16" t="s">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="I57" s="14">
         <f>SUMIFS('Trading History'!$V$4:$V1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A57))</f>
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="J57" s="8"/>
       <c r="K57" s="17" t="s">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="C58" s="5">
         <f>IFERROR(Index!C59/(Index!C57*Index!$C$2), 0)</f>
-        <v>0.2714214609</v>
+        <v>0.3181480704</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="20" t="s">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="F58" s="5">
         <f>IFERROR(Index!F59/(Index!F57*Index!$C$2), 0)</f>
-        <v>0.3152041799</v>
+        <v>0.3751454713</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="21" t="s">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="I58" s="5">
         <f>IFERROR(Index!I59/(Index!I57*Index!$C$2), 0)</f>
-        <v>0.211327533</v>
+        <v>0.2655350849</v>
       </c>
       <c r="J58" s="8"/>
       <c r="K58" s="22" t="s">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="C59" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A57))</f>
-        <v>20345.617</v>
+        <v>26493.78056</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="20" t="s">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="F59" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A57))</f>
-        <v>13668.82926</v>
+        <v>14995.31478</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="21" t="s">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="I59" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A57))</f>
-        <v>6676.78774</v>
+        <v>11498.46578</v>
       </c>
       <c r="J59" s="8"/>
       <c r="K59" s="22" t="s">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="C60" s="23">
         <f>Index!C61-Index!C59</f>
-        <v>54325</v>
+        <v>56405.04</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="20" t="s">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="F60" s="23">
         <f>Index!F61-Index!F59</f>
-        <v>29502.09</v>
+        <v>24763.77</v>
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="21" t="s">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="I60" s="23">
         <f>Index!I61-Index!I59</f>
-        <v>24822.91</v>
+        <v>31641.27</v>
       </c>
       <c r="J60" s="8"/>
       <c r="K60" s="22" t="s">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="C61" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A57))</f>
-        <v>74670.617</v>
+        <v>82898.82056</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="20" t="s">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="F61" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A57))</f>
-        <v>43170.91926</v>
+        <v>39759.08478</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="21" t="s">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="I61" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A57))</f>
-        <v>31499.69774</v>
+        <v>43139.73578</v>
       </c>
       <c r="J61" s="8"/>
       <c r="K61" s="22" t="s">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="F64" s="14">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A64)), 0)</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G64" s="8"/>
       <c r="H64" s="16" t="s">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="I64" s="14">
         <f>SUMIFS('Trading History'!$V$4:$V1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A64))</f>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J64" s="8"/>
       <c r="K64" s="17" t="s">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C65" s="5">
         <f>IFERROR(Index!C66/(Index!C64*Index!$C$2), 0)</f>
-        <v>0.2678031388</v>
+        <v>0.3181480704</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="20" t="s">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="F65" s="5">
         <f>IFERROR(Index!F66/(Index!F64*Index!$C$2), 0)</f>
-        <v>0.3152041799</v>
+        <v>0.3751454713</v>
       </c>
       <c r="G65" s="8"/>
       <c r="H65" s="21" t="s">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="I65" s="5">
         <f>IFERROR(Index!I66/(Index!I64*Index!$C$2), 0)</f>
-        <v>0.2074745411</v>
+        <v>0.2655350849</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="22" t="s">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="C66" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A64))</f>
-        <v>20738.00556</v>
+        <v>26493.78056</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="20" t="s">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F66" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A64))</f>
-        <v>13668.82926</v>
+        <v>14995.31478</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="21" t="s">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I66" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A64))</f>
-        <v>7069.1763</v>
+        <v>11498.46578</v>
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="22" t="s">
@@ -3472,7 +3472,7 @@
       </c>
       <c r="F67" s="23">
         <f>Index!F68-Index!F66</f>
-        <v>29502.09</v>
+        <v>24763.77</v>
       </c>
       <c r="G67" s="8"/>
       <c r="H67" s="21" t="s">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="I67" s="23">
         <f>Index!I68-Index!I66</f>
-        <v>26902.95</v>
+        <v>31641.27</v>
       </c>
       <c r="J67" s="8"/>
       <c r="K67" s="22" t="s">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="C68" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A64))</f>
-        <v>77143.04556</v>
+        <v>82898.82056</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="20" t="s">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="F68" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A64))</f>
-        <v>43170.91926</v>
+        <v>39759.08478</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="21" t="s">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="I68" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A64))</f>
-        <v>33972.1263</v>
+        <v>43139.73578</v>
       </c>
       <c r="J68" s="8"/>
       <c r="K68" s="22" t="s">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="F71" s="14">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A71)), 0)</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="16" t="s">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="I71" s="14">
         <f>SUMIFS('Trading History'!$V$4:$V1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A71))</f>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J71" s="8"/>
       <c r="K71" s="17" t="s">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="C72" s="5">
         <f>IFERROR(Index!C73/(Index!C71*Index!$C$2), 0)</f>
-        <v>0.2678031388</v>
+        <v>0.3181480704</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="20" t="s">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="F72" s="5">
         <f>IFERROR(Index!F73/(Index!F71*Index!$C$2), 0)</f>
-        <v>0.3152041799</v>
+        <v>0.3751454713</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="21" t="s">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="I72" s="5">
         <f>IFERROR(Index!I73/(Index!I71*Index!$C$2), 0)</f>
-        <v>0.2074745411</v>
+        <v>0.2655350849</v>
       </c>
       <c r="J72" s="8"/>
       <c r="K72" s="22" t="s">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="C73" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A71))</f>
-        <v>20738.00556</v>
+        <v>26493.78056</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="20" t="s">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="F73" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A71))</f>
-        <v>13668.82926</v>
+        <v>14995.31478</v>
       </c>
       <c r="G73" s="8"/>
       <c r="H73" s="21" t="s">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="I73" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A71))</f>
-        <v>7069.1763</v>
+        <v>11498.46578</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="22" t="s">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="F74" s="23">
         <f>Index!F75-Index!F73</f>
-        <v>29502.09</v>
+        <v>24763.77</v>
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="21" t="s">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="I74" s="23">
         <f>Index!I75-Index!I73</f>
-        <v>26902.95</v>
+        <v>31641.27</v>
       </c>
       <c r="J74" s="8"/>
       <c r="K74" s="22" t="s">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="C75" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A71))</f>
-        <v>77143.04556</v>
+        <v>82898.82056</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="20" t="s">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="F75" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A71))</f>
-        <v>43170.91926</v>
+        <v>39759.08478</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="21" t="s">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="I75" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A71))</f>
-        <v>33972.1263</v>
+        <v>43139.73578</v>
       </c>
       <c r="J75" s="8"/>
       <c r="K75" s="22" t="s">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="C78" s="14">
         <f>SUMIFS('Trading History'!$N$4:$N1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A78))</f>
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="15" t="s">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="F78" s="14">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A78)), 0)</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G78" s="8"/>
       <c r="H78" s="16" t="s">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="I78" s="14">
         <f>SUMIFS('Trading History'!$V$4:$V1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A78))</f>
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="J78" s="8"/>
       <c r="K78" s="17" t="s">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="C79" s="5">
         <f>IFERROR(Index!C80/(Index!C78*Index!$C$2), 0)</f>
-        <v>0.2678031388</v>
+        <v>0.3005993731</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="20" t="s">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="F79" s="5">
         <f>IFERROR(Index!F80/(Index!F78*Index!$C$2), 0)</f>
-        <v>0.3152041799</v>
+        <v>0.3751454713</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="21" t="s">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="I79" s="5">
         <f>IFERROR(Index!I80/(Index!I78*Index!$C$2), 0)</f>
-        <v>0.2074745411</v>
+        <v>0.2409624945</v>
       </c>
       <c r="J79" s="8"/>
       <c r="K79" s="22" t="s">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C80" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A78))</f>
-        <v>20738.00556</v>
+        <v>27035.00582</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="20" t="s">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="F80" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A78))</f>
-        <v>13668.82926</v>
+        <v>14995.31478</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="21" t="s">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="I80" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A78))</f>
-        <v>7069.1763</v>
+        <v>12039.69104</v>
       </c>
       <c r="J80" s="8"/>
       <c r="K80" s="22" t="s">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="C81" s="23">
         <f>Index!C82-Index!C80</f>
-        <v>56405.04</v>
+        <v>62518.13</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="20" t="s">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="F81" s="23">
         <f>Index!F82-Index!F80</f>
-        <v>29502.09</v>
+        <v>24763.77</v>
       </c>
       <c r="G81" s="8"/>
       <c r="H81" s="21" t="s">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="I81" s="23">
         <f>Index!I82-Index!I80</f>
-        <v>26902.95</v>
+        <v>37754.36</v>
       </c>
       <c r="J81" s="8"/>
       <c r="K81" s="22" t="s">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="C82" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A78))</f>
-        <v>77143.04556</v>
+        <v>89553.13582</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="20" t="s">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="F82" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A78))</f>
-        <v>43170.91926</v>
+        <v>39759.08478</v>
       </c>
       <c r="G82" s="8"/>
       <c r="H82" s="21" t="s">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="I82" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A78))</f>
-        <v>33972.1263</v>
+        <v>49794.05104</v>
       </c>
       <c r="J82" s="8"/>
       <c r="K82" s="22" t="s">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="F85" s="14">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A85)), 0)</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G85" s="8"/>
       <c r="H85" s="16" t="s">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="I85" s="14">
         <f>SUMIFS('Trading History'!$V$4:$V1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A85))</f>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="J85" s="8"/>
       <c r="K85" s="17" t="s">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="C86" s="5">
         <f>IFERROR(Index!C87/(Index!C85*Index!$C$2), 0)</f>
-        <v>0.2489315615</v>
+        <v>0.3005993731</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="20" t="s">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="F86" s="5">
         <f>IFERROR(Index!F87/(Index!F85*Index!$C$2), 0)</f>
-        <v>0.3152041799</v>
+        <v>0.3751454713</v>
       </c>
       <c r="G86" s="8"/>
       <c r="H86" s="21" t="s">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="I86" s="5">
         <f>IFERROR(Index!I87/(Index!I85*Index!$C$2), 0)</f>
-        <v>0.1775610495</v>
+        <v>0.2409624945</v>
       </c>
       <c r="J86" s="8"/>
       <c r="K86" s="22" t="s">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="C87" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A85))</f>
-        <v>20818.76882</v>
+        <v>27035.00582</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="20" t="s">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="F87" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A85))</f>
-        <v>13668.82926</v>
+        <v>14995.31478</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="21" t="s">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="I87" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A85))</f>
-        <v>7149.93956</v>
+        <v>12039.69104</v>
       </c>
       <c r="J87" s="8"/>
       <c r="K87" s="22" t="s">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F88" s="23">
         <f>Index!F89-Index!F87</f>
-        <v>29502.09</v>
+        <v>24763.77</v>
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="21" t="s">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="I88" s="23">
         <f>Index!I89-Index!I87</f>
-        <v>33016.04</v>
+        <v>37754.36</v>
       </c>
       <c r="J88" s="8"/>
       <c r="K88" s="22" t="s">
@@ -4384,7 +4384,7 @@
       </c>
       <c r="C89" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A85))</f>
-        <v>83336.89882</v>
+        <v>89553.13582</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="20" t="s">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="F89" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A85))</f>
-        <v>43170.91926</v>
+        <v>39759.08478</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="21" t="s">
@@ -4400,7 +4400,7 @@
       </c>
       <c r="I89" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A85))</f>
-        <v>40165.97956</v>
+        <v>49794.05104</v>
       </c>
       <c r="J89" s="8"/>
       <c r="K89" s="22" t="s">
@@ -29454,19 +29454,19 @@
       </c>
       <c r="J5" s="61">
         <f>Index!$C$2</f>
-        <v>619.5</v>
+        <v>666.2</v>
       </c>
       <c r="K5" s="62">
         <f t="shared" ref="K5:K25" si="1">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v>0.5704682125</v>
+        <v>0.6872833731</v>
       </c>
       <c r="L5" s="61">
         <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v>224.86716</v>
+        <v>270.91336</v>
       </c>
       <c r="M5" s="61">
         <f t="shared" ref="M5:M25" si="2">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v>616.30716</v>
+        <v>662.35336</v>
       </c>
       <c r="N5" s="63">
         <f t="shared" ref="N5:N25" si="3">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
@@ -29474,15 +29474,15 @@
       </c>
       <c r="O5" s="62">
         <f t="shared" ref="O5:O25" si="4">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v>0.5704682125</v>
+        <v>0.6872833731</v>
       </c>
       <c r="P5" s="61">
         <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v>224.86716</v>
+        <v>270.91336</v>
       </c>
       <c r="Q5" s="61">
         <f t="shared" ref="Q5:Q25" si="5">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v>616.30716</v>
+        <v>662.35336</v>
       </c>
       <c r="R5" s="61">
         <f t="shared" ref="R5:R25" si="6">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
@@ -29549,19 +29549,19 @@
       </c>
       <c r="J6" s="61">
         <f>Index!$C$2</f>
-        <v>619.5</v>
+        <v>666.2</v>
       </c>
       <c r="K6" s="62">
         <f t="shared" si="1"/>
-        <v>0.5704682125</v>
+        <v>0.6872833731</v>
       </c>
       <c r="L6" s="61">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v>224.86716</v>
+        <v>270.91336</v>
       </c>
       <c r="M6" s="61">
         <f t="shared" si="2"/>
-        <v>616.30716</v>
+        <v>662.35336</v>
       </c>
       <c r="N6" s="63">
         <f t="shared" si="3"/>
@@ -29569,15 +29569,15 @@
       </c>
       <c r="O6" s="62">
         <f t="shared" si="4"/>
-        <v>0.5704682125</v>
+        <v>0.6872833731</v>
       </c>
       <c r="P6" s="61">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v>224.86716</v>
+        <v>270.91336</v>
       </c>
       <c r="Q6" s="61">
         <f t="shared" si="5"/>
-        <v>616.30716</v>
+        <v>662.35336</v>
       </c>
       <c r="R6" s="61">
         <f t="shared" si="6"/>
@@ -29644,19 +29644,19 @@
       </c>
       <c r="J7" s="61">
         <f>Index!$C$2</f>
-        <v>619.5</v>
+        <v>666.2</v>
       </c>
       <c r="K7" s="62">
         <f t="shared" si="1"/>
-        <v>0.5704142567</v>
+        <v>0.6872234906</v>
       </c>
       <c r="L7" s="61">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v>449.7146</v>
+        <v>541.807</v>
       </c>
       <c r="M7" s="61">
         <f t="shared" si="2"/>
-        <v>1232.6146</v>
+        <v>1324.707</v>
       </c>
       <c r="N7" s="63">
         <f t="shared" si="3"/>
@@ -29664,15 +29664,15 @@
       </c>
       <c r="O7" s="62">
         <f t="shared" si="4"/>
-        <v>0.5704142567</v>
+        <v>0.6872234906</v>
       </c>
       <c r="P7" s="61">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v>449.7146</v>
+        <v>541.807</v>
       </c>
       <c r="Q7" s="61">
         <f t="shared" si="5"/>
-        <v>1232.6146</v>
+        <v>1324.707</v>
       </c>
       <c r="R7" s="61">
         <f t="shared" si="6"/>
@@ -29739,19 +29739,19 @@
       </c>
       <c r="J8" s="61">
         <f>Index!$C$2</f>
-        <v>619.5</v>
+        <v>666.2</v>
       </c>
       <c r="K8" s="62">
         <f t="shared" si="1"/>
-        <v>0.5704682125</v>
+        <v>0.6872833731</v>
       </c>
       <c r="L8" s="61">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v>224.86716</v>
+        <v>270.91336</v>
       </c>
       <c r="M8" s="61">
         <f t="shared" si="2"/>
-        <v>616.30716</v>
+        <v>662.35336</v>
       </c>
       <c r="N8" s="63">
         <f t="shared" si="3"/>
@@ -29759,15 +29759,15 @@
       </c>
       <c r="O8" s="62">
         <f t="shared" si="4"/>
-        <v>0.5704682125</v>
+        <v>0.6872833731</v>
       </c>
       <c r="P8" s="61">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v>224.86716</v>
+        <v>270.91336</v>
       </c>
       <c r="Q8" s="61">
         <f t="shared" si="5"/>
-        <v>616.30716</v>
+        <v>662.35336</v>
       </c>
       <c r="R8" s="61">
         <f t="shared" si="6"/>
@@ -29834,19 +29834,19 @@
       </c>
       <c r="J9" s="61">
         <f>Index!$C$2</f>
-        <v>619.5</v>
+        <v>666.2</v>
       </c>
       <c r="K9" s="62">
         <f t="shared" si="1"/>
-        <v>0.4657742474</v>
+        <v>0.5746959167</v>
       </c>
       <c r="L9" s="61">
         <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
-        <v>1969.042</v>
+        <v>2429.504</v>
       </c>
       <c r="M9" s="61">
         <f t="shared" si="2"/>
-        <v>6167.042</v>
+        <v>6627.504</v>
       </c>
       <c r="N9" s="63">
         <f t="shared" si="3"/>
@@ -29854,15 +29854,15 @@
       </c>
       <c r="O9" s="62">
         <f t="shared" si="4"/>
-        <v>0.4657742474</v>
+        <v>0.5746959167</v>
       </c>
       <c r="P9" s="61">
         <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
-        <v>1969.042</v>
+        <v>2429.504</v>
       </c>
       <c r="Q9" s="61">
         <f t="shared" si="5"/>
-        <v>6167.042</v>
+        <v>6627.504</v>
       </c>
       <c r="R9" s="61">
         <f t="shared" si="6"/>
@@ -29929,19 +29929,19 @@
       </c>
       <c r="J10" s="61">
         <f>Index!$C$2</f>
-        <v>619.5</v>
+        <v>666.2</v>
       </c>
       <c r="K10" s="62">
         <f t="shared" si="1"/>
-        <v>0.5006927678</v>
+        <v>0.6122444698</v>
       </c>
       <c r="L10" s="61">
         <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
-        <v>4133.5092</v>
+        <v>5054.4332</v>
       </c>
       <c r="M10" s="61">
         <f t="shared" si="2"/>
-        <v>12331.3092</v>
+        <v>13252.2332</v>
       </c>
       <c r="N10" s="63">
         <f t="shared" si="3"/>
@@ -29949,15 +29949,15 @@
       </c>
       <c r="O10" s="62">
         <f t="shared" si="4"/>
-        <v>0.5006927678</v>
+        <v>0.6122444698</v>
       </c>
       <c r="P10" s="61">
         <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
-        <v>4133.5092</v>
+        <v>5054.4332</v>
       </c>
       <c r="Q10" s="61">
         <f t="shared" si="5"/>
-        <v>12331.3092</v>
+        <v>13252.2332</v>
       </c>
       <c r="R10" s="61">
         <f t="shared" si="6"/>
@@ -30024,19 +30024,19 @@
       </c>
       <c r="J11" s="61">
         <f>Index!$C$2</f>
-        <v>619.5</v>
+        <v>666.2</v>
       </c>
       <c r="K11" s="62">
         <f t="shared" si="1"/>
-        <v>0.4774503585</v>
+        <v>0.5872495989</v>
       </c>
       <c r="L11" s="61">
         <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
-        <v>5005.6755</v>
+        <v>6156.8305</v>
       </c>
       <c r="M11" s="61">
         <f t="shared" si="2"/>
-        <v>15416.4255</v>
+        <v>16567.5805</v>
       </c>
       <c r="N11" s="63">
         <f t="shared" si="3"/>
@@ -30044,15 +30044,15 @@
       </c>
       <c r="O11" s="62">
         <f t="shared" si="4"/>
-        <v>0.4774503585</v>
+        <v>0.5872495989</v>
       </c>
       <c r="P11" s="61">
         <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
-        <v>5005.6755</v>
+        <v>6156.8305</v>
       </c>
       <c r="Q11" s="61">
         <f t="shared" si="5"/>
-        <v>15416.4255</v>
+        <v>16567.5805</v>
       </c>
       <c r="R11" s="61">
         <f t="shared" si="6"/>
@@ -30119,55 +30119,55 @@
       </c>
       <c r="J12" s="61">
         <f>Index!$C$2</f>
-        <v>619.5</v>
+        <v>666.2</v>
       </c>
       <c r="K12" s="62">
         <f t="shared" si="1"/>
-        <v>0.3008702904</v>
+        <v>0.3973587025</v>
       </c>
       <c r="L12" s="61">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v>574.32528</v>
+        <v>758.51008</v>
       </c>
       <c r="M12" s="61">
         <f t="shared" si="2"/>
-        <v>2469.84528</v>
+        <v>2654.03008</v>
       </c>
       <c r="N12" s="63">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O12" s="62">
+      <c r="O12" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>0.3008702904</v>
-      </c>
-      <c r="P12" s="61">
+        <v/>
+      </c>
+      <c r="P12" s="61" t="str">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v>574.32528</v>
-      </c>
-      <c r="Q12" s="61">
+        <v/>
+      </c>
+      <c r="Q12" s="61" t="str">
         <f t="shared" si="5"/>
-        <v>2469.84528</v>
-      </c>
-      <c r="R12" s="61">
+        <v/>
+      </c>
+      <c r="R12" s="61" t="str">
         <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="S12" s="64">
+        <f t="shared" si="7"/>
+        <v>0.3973587025</v>
+      </c>
+      <c r="T12" s="65">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <v>758.51008</v>
+      </c>
+      <c r="U12" s="65">
+        <f t="shared" si="8"/>
+        <v>2654.03008</v>
+      </c>
+      <c r="V12" s="65">
+        <f t="shared" si="9"/>
         <v>4</v>
-      </c>
-      <c r="S12" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="T12" s="65" t="str">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v/>
-      </c>
-      <c r="U12" s="65" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="V12" s="65" t="str">
-        <f t="shared" si="9"/>
-        <v/>
       </c>
       <c r="W12" s="65"/>
       <c r="X12" s="65"/>
@@ -30214,55 +30214,55 @@
       </c>
       <c r="J13" s="61">
         <f>Index!$C$2</f>
-        <v>619.5</v>
+        <v>666.2</v>
       </c>
       <c r="K13" s="62">
         <f t="shared" si="1"/>
-        <v>0.3007750398</v>
+        <v>0.3972594083</v>
       </c>
       <c r="L13" s="61">
         <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
-        <v>143.54188</v>
+        <v>189.58808</v>
       </c>
       <c r="M13" s="61">
         <f t="shared" si="2"/>
-        <v>617.46188</v>
+        <v>663.50808</v>
       </c>
       <c r="N13" s="63">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O13" s="62">
+      <c r="O13" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>0.3007750398</v>
-      </c>
-      <c r="P13" s="61">
+        <v/>
+      </c>
+      <c r="P13" s="61" t="str">
         <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
-        <v>143.54188</v>
-      </c>
-      <c r="Q13" s="61">
+        <v/>
+      </c>
+      <c r="Q13" s="61" t="str">
         <f t="shared" si="5"/>
-        <v>617.46188</v>
-      </c>
-      <c r="R13" s="61">
+        <v/>
+      </c>
+      <c r="R13" s="61" t="str">
         <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="S13" s="64">
+        <f t="shared" si="7"/>
+        <v>0.3972594083</v>
+      </c>
+      <c r="T13" s="65">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <v>189.58808</v>
+      </c>
+      <c r="U13" s="65">
+        <f t="shared" si="8"/>
+        <v>663.50808</v>
+      </c>
+      <c r="V13" s="65">
+        <f t="shared" si="9"/>
         <v>1</v>
-      </c>
-      <c r="S13" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="T13" s="65" t="str">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
-        <v/>
-      </c>
-      <c r="U13" s="65" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="V13" s="65" t="str">
-        <f t="shared" si="9"/>
-        <v/>
       </c>
       <c r="W13" s="65"/>
       <c r="X13" s="65"/>
@@ -30309,55 +30309,55 @@
       </c>
       <c r="J14" s="61">
         <f>Index!$C$2</f>
-        <v>619.5</v>
+        <v>666.2</v>
       </c>
       <c r="K14" s="62">
         <f t="shared" si="1"/>
-        <v>0.301119341</v>
+        <v>0.3976279762</v>
       </c>
       <c r="L14" s="61">
         <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
-        <v>574.68024</v>
+        <v>758.86504</v>
       </c>
       <c r="M14" s="61">
         <f t="shared" si="2"/>
-        <v>2469.84024</v>
+        <v>2654.02504</v>
       </c>
       <c r="N14" s="63">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O14" s="62">
+      <c r="O14" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>0.301119341</v>
-      </c>
-      <c r="P14" s="61">
+        <v/>
+      </c>
+      <c r="P14" s="61" t="str">
         <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
-        <v>574.68024</v>
-      </c>
-      <c r="Q14" s="61">
+        <v/>
+      </c>
+      <c r="Q14" s="61" t="str">
         <f t="shared" si="5"/>
-        <v>2469.84024</v>
-      </c>
-      <c r="R14" s="61">
+        <v/>
+      </c>
+      <c r="R14" s="61" t="str">
         <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="S14" s="64">
+        <f t="shared" si="7"/>
+        <v>0.3976279762</v>
+      </c>
+      <c r="T14" s="65">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <v>758.86504</v>
+      </c>
+      <c r="U14" s="65">
+        <f t="shared" si="8"/>
+        <v>2654.02504</v>
+      </c>
+      <c r="V14" s="65">
+        <f t="shared" si="9"/>
         <v>4</v>
-      </c>
-      <c r="S14" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="T14" s="65" t="str">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
-        <v/>
-      </c>
-      <c r="U14" s="65" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="V14" s="65" t="str">
-        <f t="shared" si="9"/>
-        <v/>
       </c>
       <c r="W14" s="65"/>
       <c r="X14" s="65"/>
@@ -30404,55 +30404,55 @@
       </c>
       <c r="J15" s="61">
         <f>Index!$C$2</f>
-        <v>619.5</v>
+        <v>666.2</v>
       </c>
       <c r="K15" s="62">
         <f t="shared" si="1"/>
-        <v>0.3013145229</v>
+        <v>0.3978393426</v>
       </c>
       <c r="L15" s="61">
         <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
-        <v>143.73908</v>
+        <v>189.78528</v>
       </c>
       <c r="M15" s="61">
         <f t="shared" si="2"/>
-        <v>617.45908</v>
+        <v>663.50528</v>
       </c>
       <c r="N15" s="63">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O15" s="62">
+      <c r="O15" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>0.3013145229</v>
-      </c>
-      <c r="P15" s="61">
+        <v/>
+      </c>
+      <c r="P15" s="61" t="str">
         <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
-        <v>143.73908</v>
-      </c>
-      <c r="Q15" s="61">
+        <v/>
+      </c>
+      <c r="Q15" s="61" t="str">
         <f t="shared" si="5"/>
-        <v>617.45908</v>
-      </c>
-      <c r="R15" s="61">
+        <v/>
+      </c>
+      <c r="R15" s="61" t="str">
         <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="S15" s="64">
+        <f t="shared" si="7"/>
+        <v>0.3978393426</v>
+      </c>
+      <c r="T15" s="65">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <v>189.78528</v>
+      </c>
+      <c r="U15" s="65">
+        <f t="shared" si="8"/>
+        <v>663.50528</v>
+      </c>
+      <c r="V15" s="65">
+        <f t="shared" si="9"/>
         <v>1</v>
-      </c>
-      <c r="S15" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="T15" s="65" t="str">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
-        <v/>
-      </c>
-      <c r="U15" s="65" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="V15" s="65" t="str">
-        <f t="shared" si="9"/>
-        <v/>
       </c>
       <c r="W15" s="65"/>
       <c r="X15" s="65"/>
@@ -30499,19 +30499,19 @@
       </c>
       <c r="J16" s="61">
         <f>Index!$C$2</f>
-        <v>619.5</v>
+        <v>666.2</v>
       </c>
       <c r="K16" s="62">
         <f t="shared" si="1"/>
-        <v>0.2200445238</v>
+        <v>0.3104393098</v>
       </c>
       <c r="L16" s="61">
         <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
-        <v>112.08848</v>
+        <v>158.13468</v>
       </c>
       <c r="M16" s="61">
         <f t="shared" si="2"/>
-        <v>617.90848</v>
+        <v>663.95468</v>
       </c>
       <c r="N16" s="63">
         <f t="shared" si="3"/>
@@ -30535,15 +30535,15 @@
       </c>
       <c r="S16" s="64">
         <f t="shared" si="7"/>
-        <v>0.2200445238</v>
+        <v>0.3104393098</v>
       </c>
       <c r="T16" s="65">
         <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
-        <v>112.08848</v>
+        <v>158.13468</v>
       </c>
       <c r="U16" s="65">
         <f t="shared" si="8"/>
-        <v>617.90848</v>
+        <v>663.95468</v>
       </c>
       <c r="V16" s="65">
         <f t="shared" si="9"/>
@@ -30594,19 +30594,19 @@
       </c>
       <c r="J17" s="61">
         <f>Index!$C$2</f>
-        <v>619.5</v>
+        <v>666.2</v>
       </c>
       <c r="K17" s="62">
         <f t="shared" si="1"/>
-        <v>0.2200763615</v>
+        <v>0.3104762742</v>
       </c>
       <c r="L17" s="61">
         <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v>1008.88506</v>
+        <v>1423.30086</v>
       </c>
       <c r="M17" s="61">
         <f t="shared" si="2"/>
-        <v>5561.17506</v>
+        <v>5975.59086</v>
       </c>
       <c r="N17" s="63">
         <f t="shared" si="3"/>
@@ -30630,15 +30630,15 @@
       </c>
       <c r="S17" s="64">
         <f t="shared" si="7"/>
-        <v>0.2200763615</v>
+        <v>0.3104762742</v>
       </c>
       <c r="T17" s="65">
         <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v>1008.88506</v>
+        <v>1423.30086</v>
       </c>
       <c r="U17" s="65">
         <f t="shared" si="8"/>
-        <v>5561.17506</v>
+        <v>5975.59086</v>
       </c>
       <c r="V17" s="65">
         <f t="shared" si="9"/>
@@ -30689,19 +30689,19 @@
       </c>
       <c r="J18" s="61">
         <f>Index!$C$2</f>
-        <v>619.5</v>
+        <v>666.2</v>
       </c>
       <c r="K18" s="62">
         <f t="shared" si="1"/>
-        <v>0.282741463</v>
+        <v>0.3778644824</v>
       </c>
       <c r="L18" s="61">
         <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v>4105.9998</v>
+        <v>5487.3858</v>
       </c>
       <c r="M18" s="61">
         <f t="shared" si="2"/>
-        <v>18526.6998</v>
+        <v>19908.0858</v>
       </c>
       <c r="N18" s="63">
         <f t="shared" si="3"/>
@@ -30725,15 +30725,15 @@
       </c>
       <c r="S18" s="64">
         <f t="shared" si="7"/>
-        <v>0.282741463</v>
+        <v>0.3778644824</v>
       </c>
       <c r="T18" s="65">
         <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v>4105.9998</v>
+        <v>5487.3858</v>
       </c>
       <c r="U18" s="65">
         <f t="shared" si="8"/>
-        <v>18526.6998</v>
+        <v>19908.0858</v>
       </c>
       <c r="V18" s="65">
         <f t="shared" si="9"/>
@@ -30784,19 +30784,19 @@
       </c>
       <c r="J19" s="61">
         <f>Index!$C$2</f>
-        <v>619.5</v>
+        <v>666.2</v>
       </c>
       <c r="K19" s="62">
         <f t="shared" si="1"/>
-        <v>0.2674354621</v>
+        <v>0.3614030799</v>
       </c>
       <c r="L19" s="61">
         <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
-        <v>1310.4926</v>
+        <v>1770.9546</v>
       </c>
       <c r="M19" s="61">
         <f t="shared" si="2"/>
-        <v>6176.3926</v>
+        <v>6636.8546</v>
       </c>
       <c r="N19" s="63">
         <f t="shared" si="3"/>
@@ -30820,15 +30820,15 @@
       </c>
       <c r="S19" s="64">
         <f t="shared" si="7"/>
-        <v>0.2674354621</v>
+        <v>0.3614030799</v>
       </c>
       <c r="T19" s="65">
         <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
-        <v>1310.4926</v>
+        <v>1770.9546</v>
       </c>
       <c r="U19" s="65">
         <f t="shared" si="8"/>
-        <v>6176.3926</v>
+        <v>6636.8546</v>
       </c>
       <c r="V19" s="65">
         <f t="shared" si="9"/>
@@ -30879,7 +30879,7 @@
       </c>
       <c r="J20" s="61">
         <f>Index!$C$2</f>
-        <v>619.5</v>
+        <v>666.2</v>
       </c>
       <c r="K20" s="62" t="str">
         <f t="shared" si="1"/>
@@ -30974,19 +30974,19 @@
       </c>
       <c r="J21" s="61">
         <f>Index!$C$2</f>
-        <v>619.5</v>
+        <v>666.2</v>
       </c>
       <c r="K21" s="62">
         <f t="shared" si="1"/>
-        <v>0.01313385315</v>
+        <v>0.08793274854</v>
       </c>
       <c r="L21" s="61">
         <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
-        <v>8.0852</v>
+        <v>54.1314</v>
       </c>
       <c r="M21" s="61">
         <f t="shared" si="2"/>
-        <v>619.3852</v>
+        <v>665.4314</v>
       </c>
       <c r="N21" s="63">
         <f t="shared" si="3"/>
@@ -31010,15 +31010,15 @@
       </c>
       <c r="S21" s="64">
         <f t="shared" si="7"/>
-        <v>0.01313385315</v>
+        <v>0.08793274854</v>
       </c>
       <c r="T21" s="65">
         <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
-        <v>8.0852</v>
+        <v>54.1314</v>
       </c>
       <c r="U21" s="65">
         <f t="shared" si="8"/>
-        <v>619.3852</v>
+        <v>665.4314</v>
       </c>
       <c r="V21" s="65">
         <f t="shared" si="9"/>
@@ -31071,19 +31071,19 @@
       </c>
       <c r="J22" s="61">
         <f>Index!$C$2</f>
-        <v>619.5</v>
+        <v>666.2</v>
       </c>
       <c r="K22" s="62">
         <f t="shared" si="1"/>
-        <v>0.01311736274</v>
+        <v>0.0879135581</v>
       </c>
       <c r="L22" s="61">
         <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
-        <v>72.67806</v>
+        <v>487.09386</v>
       </c>
       <c r="M22" s="61">
         <f t="shared" si="2"/>
-        <v>5574.46806</v>
+        <v>5988.88386</v>
       </c>
       <c r="N22" s="63">
         <f t="shared" si="3"/>
@@ -31107,15 +31107,15 @@
       </c>
       <c r="S22" s="64">
         <f t="shared" si="7"/>
-        <v>0.01311736274</v>
+        <v>0.0879135581</v>
       </c>
       <c r="T22" s="65">
         <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
-        <v>72.67806</v>
+        <v>487.09386</v>
       </c>
       <c r="U22" s="65">
         <f t="shared" si="8"/>
-        <v>5574.46806</v>
+        <v>5988.88386</v>
       </c>
       <c r="V22" s="65">
         <f t="shared" si="9"/>
@@ -31168,19 +31168,19 @@
       </c>
       <c r="J23" s="61">
         <f>Index!$C$2</f>
-        <v>619.5</v>
+        <v>666.2</v>
       </c>
       <c r="K23" s="62">
         <f t="shared" si="1"/>
-        <v>0.1873286399</v>
+        <v>0.2752595624</v>
       </c>
       <c r="L23" s="61">
         <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
-        <v>294.29142</v>
+        <v>432.43002</v>
       </c>
       <c r="M23" s="61">
         <f t="shared" si="2"/>
-        <v>1854.32142</v>
+        <v>1992.46002</v>
       </c>
       <c r="N23" s="63">
         <f t="shared" si="3"/>
@@ -31204,15 +31204,15 @@
       </c>
       <c r="S23" s="64">
         <f t="shared" si="7"/>
-        <v>0.1873286399</v>
+        <v>0.2752595624</v>
       </c>
       <c r="T23" s="65">
         <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
-        <v>294.29142</v>
+        <v>432.43002</v>
       </c>
       <c r="U23" s="65">
         <f t="shared" si="8"/>
-        <v>1854.32142</v>
+        <v>1992.46002</v>
       </c>
       <c r="V23" s="65">
         <f t="shared" si="9"/>
@@ -31265,19 +31265,19 @@
       </c>
       <c r="J24" s="61">
         <f>Index!$C$2</f>
-        <v>619.5</v>
+        <v>666.2</v>
       </c>
       <c r="K24" s="62">
         <f t="shared" si="1"/>
-        <v>0.1873262551</v>
+        <v>0.2752560582</v>
       </c>
       <c r="L24" s="61">
         <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
-        <v>98.09714</v>
+        <v>144.14334</v>
       </c>
       <c r="M24" s="61">
         <f t="shared" si="2"/>
-        <v>618.10714</v>
+        <v>664.15334</v>
       </c>
       <c r="N24" s="63">
         <f t="shared" si="3"/>
@@ -31301,15 +31301,15 @@
       </c>
       <c r="S24" s="64">
         <f t="shared" si="7"/>
-        <v>0.1873262551</v>
+        <v>0.2752560582</v>
       </c>
       <c r="T24" s="65">
         <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
-        <v>98.09714</v>
+        <v>144.14334</v>
       </c>
       <c r="U24" s="65">
         <f t="shared" si="8"/>
-        <v>618.10714</v>
+        <v>664.15334</v>
       </c>
       <c r="V24" s="65">
         <f t="shared" si="9"/>
@@ -31362,19 +31362,19 @@
       </c>
       <c r="J25" s="61">
         <f>Index!$C$2</f>
-        <v>619.5</v>
+        <v>666.2</v>
       </c>
       <c r="K25" s="62">
         <f t="shared" si="1"/>
-        <v>0.2893194891</v>
+        <v>0.384940297</v>
       </c>
       <c r="L25" s="61">
         <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
-        <v>139.3218</v>
+        <v>185.368</v>
       </c>
       <c r="M25" s="61">
         <f t="shared" si="2"/>
-        <v>617.5218</v>
+        <v>663.568</v>
       </c>
       <c r="N25" s="63">
         <f t="shared" si="3"/>
@@ -31398,15 +31398,15 @@
       </c>
       <c r="S25" s="64">
         <f t="shared" si="7"/>
-        <v>0.2893194891</v>
+        <v>0.384940297</v>
       </c>
       <c r="T25" s="65">
         <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
-        <v>139.3218</v>
+        <v>185.368</v>
       </c>
       <c r="U25" s="65">
         <f t="shared" si="8"/>
-        <v>617.5218</v>
+        <v>663.568</v>
       </c>
       <c r="V25" s="65">
         <f t="shared" si="9"/>
@@ -47431,7 +47431,7 @@
   </sheetData>
   <autoFilter ref="$B$4:$AD$25"/>
   <customSheetViews>
-    <customSheetView guid="{C9E1FA3A-551A-4967-819B-0AAB73C11DEF}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{7EDCED90-7690-4314-A3D1-C0C1E2433F64}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$4:$AO$104"/>
     </customSheetView>
   </customSheetViews>
